--- a/output/sites/clustering with all nutrients/clust_all_nut_findk_validity_measures_PS.xlsx
+++ b/output/sites/clustering with all nutrients/clust_all_nut_findk_validity_measures_PS.xlsx
@@ -410,25 +410,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>1.031</v>
       </c>
       <c r="E2" t="n">
-        <v>1.969</v>
+        <v>2.078</v>
       </c>
       <c r="F2" t="n">
-        <v>1.864</v>
+        <v>1.998</v>
       </c>
       <c r="G2" t="n">
-        <v>0.353</v>
+        <v>0.363</v>
       </c>
       <c r="H2" t="n">
-        <v>3.095</v>
+        <v>3.238</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -439,25 +439,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>1.031</v>
       </c>
       <c r="E3" t="n">
-        <v>1.956</v>
+        <v>2.18</v>
       </c>
       <c r="F3" t="n">
-        <v>1.869</v>
+        <v>2.153</v>
       </c>
       <c r="G3" t="n">
-        <v>0.365</v>
+        <v>0.301</v>
       </c>
       <c r="H3" t="n">
-        <v>3.095</v>
+        <v>3.238</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.13</v>
+        <v>1.031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.954</v>
+        <v>1.191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.911</v>
+        <v>1.238</v>
       </c>
       <c r="G4" t="n">
-        <v>0.597</v>
+        <v>0.531</v>
       </c>
       <c r="H4" t="n">
-        <v>2.565</v>
+        <v>2.94</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -497,25 +497,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.031</v>
       </c>
       <c r="E5" t="n">
-        <v>1.956</v>
+        <v>2.18</v>
       </c>
       <c r="F5" t="n">
-        <v>1.869</v>
+        <v>2.153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.257</v>
+        <v>0.23</v>
       </c>
       <c r="H5" t="n">
-        <v>3.095</v>
+        <v>3.238</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -526,25 +526,25 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>1.313</v>
       </c>
       <c r="E6" t="n">
-        <v>1.895</v>
+        <v>2.026</v>
       </c>
       <c r="F6" t="n">
-        <v>1.953</v>
+        <v>1.939</v>
       </c>
       <c r="G6" t="n">
-        <v>0.171</v>
+        <v>0.298</v>
       </c>
       <c r="H6" t="n">
-        <v>3.035</v>
+        <v>3.416</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -555,22 +555,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.13</v>
+        <v>1.031</v>
       </c>
       <c r="E7" t="n">
-        <v>0.954</v>
+        <v>1.191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.911</v>
+        <v>1.238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.587</v>
+        <v>0.509</v>
       </c>
       <c r="H7" t="n">
-        <v>2.565</v>
+        <v>2.94</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -584,22 +584,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>1.031</v>
       </c>
       <c r="E8" t="n">
-        <v>1.541</v>
+        <v>1.846</v>
       </c>
       <c r="F8" t="n">
-        <v>1.624</v>
+        <v>1.875</v>
       </c>
       <c r="G8" t="n">
-        <v>0.336</v>
+        <v>0.239</v>
       </c>
       <c r="H8" t="n">
-        <v>2.841</v>
+        <v>3.015</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -613,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>1.313</v>
       </c>
       <c r="E9" t="n">
-        <v>1.895</v>
+        <v>2.026</v>
       </c>
       <c r="F9" t="n">
-        <v>1.953</v>
+        <v>1.939</v>
       </c>
       <c r="G9" t="n">
-        <v>0.162</v>
+        <v>0.298</v>
       </c>
       <c r="H9" t="n">
-        <v>3.035</v>
+        <v>3.416</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -648,16 +648,16 @@
         <v>1.876</v>
       </c>
       <c r="E10" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="F10" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="G10" t="n">
-        <v>0.307</v>
+        <v>0.353</v>
       </c>
       <c r="H10" t="n">
-        <v>3.835</v>
+        <v>3.965</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -671,22 +671,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>1.13</v>
+        <v>1.031</v>
       </c>
       <c r="E11" t="n">
-        <v>0.954</v>
+        <v>1.191</v>
       </c>
       <c r="F11" t="n">
-        <v>0.911</v>
+        <v>1.238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.548</v>
+        <v>0.456</v>
       </c>
       <c r="H11" t="n">
-        <v>2.565</v>
+        <v>2.94</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -700,22 +700,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>1.262</v>
       </c>
       <c r="E12" t="n">
-        <v>1.541</v>
+        <v>1.613</v>
       </c>
       <c r="F12" t="n">
-        <v>1.624</v>
+        <v>1.693</v>
       </c>
       <c r="G12" t="n">
-        <v>0.334</v>
+        <v>0.216</v>
       </c>
       <c r="H12" t="n">
-        <v>2.841</v>
+        <v>3.002</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -729,22 +729,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>1.313</v>
       </c>
       <c r="E13" t="n">
-        <v>1.566</v>
+        <v>2.026</v>
       </c>
       <c r="F13" t="n">
-        <v>1.534</v>
+        <v>1.939</v>
       </c>
       <c r="G13" t="n">
-        <v>0.177</v>
+        <v>0.274</v>
       </c>
       <c r="H13" t="n">
-        <v>2.795</v>
+        <v>3.416</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -758,22 +758,22 @@
         <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.684</v>
+        <v>1.031</v>
       </c>
       <c r="E14" t="n">
-        <v>2.081</v>
+        <v>1.458</v>
       </c>
       <c r="F14" t="n">
-        <v>2.081</v>
+        <v>1.366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>0.237</v>
       </c>
       <c r="H14" t="n">
-        <v>3.376</v>
+        <v>2.465</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -793,16 +793,16 @@
         <v>1.876</v>
       </c>
       <c r="E15" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="F15" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="G15" t="n">
-        <v>0.307</v>
+        <v>0.296</v>
       </c>
       <c r="H15" t="n">
-        <v>3.835</v>
+        <v>3.965</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -816,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>1.13</v>
+        <v>1.031</v>
       </c>
       <c r="E16" t="n">
-        <v>0.954</v>
+        <v>1.191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.911</v>
+        <v>1.238</v>
       </c>
       <c r="G16" t="n">
-        <v>0.546</v>
+        <v>0.425</v>
       </c>
       <c r="H16" t="n">
-        <v>2.565</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -845,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>0.863</v>
+        <v>1.262</v>
       </c>
       <c r="E17" t="n">
-        <v>1.247</v>
+        <v>1.613</v>
       </c>
       <c r="F17" t="n">
-        <v>1.232</v>
+        <v>1.693</v>
       </c>
       <c r="G17" t="n">
-        <v>0.298</v>
+        <v>0.216</v>
       </c>
       <c r="H17" t="n">
-        <v>2.673</v>
+        <v>3.002</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -874,22 +874,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>1.313</v>
       </c>
       <c r="E18" t="n">
-        <v>1.566</v>
+        <v>1.435</v>
       </c>
       <c r="F18" t="n">
-        <v>1.534</v>
+        <v>1.635</v>
       </c>
       <c r="G18" t="n">
-        <v>0.151</v>
+        <v>0.38</v>
       </c>
       <c r="H18" t="n">
-        <v>2.795</v>
+        <v>3.217</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -906,19 +906,19 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.863</v>
+        <v>1.031</v>
       </c>
       <c r="E19" t="n">
-        <v>1.301</v>
+        <v>1.458</v>
       </c>
       <c r="F19" t="n">
-        <v>1.124</v>
+        <v>1.366</v>
       </c>
       <c r="G19" t="n">
-        <v>0.271</v>
+        <v>0.209</v>
       </c>
       <c r="H19" t="n">
-        <v>2.566</v>
+        <v>2.465</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -935,19 +935,19 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.684</v>
+        <v>1.689</v>
       </c>
       <c r="E20" t="n">
-        <v>2.081</v>
+        <v>2.109</v>
       </c>
       <c r="F20" t="n">
-        <v>2.081</v>
+        <v>2.109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>0.073</v>
       </c>
       <c r="H20" t="n">
-        <v>3.376</v>
+        <v>3.457</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -967,16 +967,16 @@
         <v>1.876</v>
       </c>
       <c r="E21" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="F21" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="G21" t="n">
-        <v>0.273</v>
+        <v>0.296</v>
       </c>
       <c r="H21" t="n">
-        <v>3.835</v>
+        <v>3.965</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -990,22 +990,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>1.13</v>
+        <v>1.031</v>
       </c>
       <c r="E22" t="n">
-        <v>0.954</v>
+        <v>1.191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.911</v>
+        <v>1.238</v>
       </c>
       <c r="G22" t="n">
-        <v>0.449</v>
+        <v>0.42</v>
       </c>
       <c r="H22" t="n">
-        <v>2.565</v>
+        <v>2.94</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -1019,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0.863</v>
+        <v>1.058</v>
       </c>
       <c r="E23" t="n">
-        <v>1.247</v>
+        <v>1.871</v>
       </c>
       <c r="F23" t="n">
-        <v>1.232</v>
+        <v>2.118</v>
       </c>
       <c r="G23" t="n">
-        <v>0.298</v>
+        <v>-0.008</v>
       </c>
       <c r="H23" t="n">
-        <v>2.673</v>
+        <v>2.706</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -1048,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.881</v>
+        <v>1.313</v>
       </c>
       <c r="E24" t="n">
-        <v>1.386</v>
+        <v>1.435</v>
       </c>
       <c r="F24" t="n">
-        <v>1.504</v>
+        <v>1.635</v>
       </c>
       <c r="G24" t="n">
-        <v>0.205</v>
+        <v>0.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.026</v>
+        <v>3.217</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -1080,19 +1080,19 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.863</v>
+        <v>1.031</v>
       </c>
       <c r="E25" t="n">
-        <v>1.301</v>
+        <v>1.458</v>
       </c>
       <c r="F25" t="n">
-        <v>1.124</v>
+        <v>1.366</v>
       </c>
       <c r="G25" t="n">
-        <v>0.238</v>
+        <v>0.189</v>
       </c>
       <c r="H25" t="n">
-        <v>2.566</v>
+        <v>2.465</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -1106,22 +1106,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>1.684</v>
+        <v>1.058</v>
       </c>
       <c r="E26" t="n">
-        <v>2.081</v>
+        <v>1.066</v>
       </c>
       <c r="F26" t="n">
-        <v>2.081</v>
+        <v>1.037</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06</v>
+        <v>0.395</v>
       </c>
       <c r="H26" t="n">
-        <v>3.376</v>
+        <v>2.925</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -1138,19 +1138,19 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>1.876</v>
+        <v>1.689</v>
       </c>
       <c r="E27" t="n">
-        <v>1.996</v>
+        <v>2.109</v>
       </c>
       <c r="F27" t="n">
-        <v>1.996</v>
+        <v>2.109</v>
       </c>
       <c r="G27" t="n">
-        <v>0.273</v>
+        <v>0.073</v>
       </c>
       <c r="H27" t="n">
-        <v>3.835</v>
+        <v>3.457</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -1164,22 +1164,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.881</v>
+        <v>1.876</v>
       </c>
       <c r="E28" t="n">
-        <v>1.14</v>
+        <v>2.005</v>
       </c>
       <c r="F28" t="n">
-        <v>1.085</v>
+        <v>2.005</v>
       </c>
       <c r="G28" t="n">
-        <v>0.193</v>
+        <v>0.276</v>
       </c>
       <c r="H28" t="n">
-        <v>2.181</v>
+        <v>3.965</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -1193,22 +1193,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>1.067</v>
+        <v>1.031</v>
       </c>
       <c r="E29" t="n">
-        <v>1.208</v>
+        <v>1.438</v>
       </c>
       <c r="F29" t="n">
-        <v>1.208</v>
+        <v>1.413</v>
       </c>
       <c r="G29" t="n">
-        <v>0.153</v>
+        <v>0.038</v>
       </c>
       <c r="H29" t="n">
-        <v>2.495</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -1222,22 +1222,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.863</v>
+        <v>1.058</v>
       </c>
       <c r="E30" t="n">
-        <v>1.247</v>
+        <v>1.871</v>
       </c>
       <c r="F30" t="n">
-        <v>1.232</v>
+        <v>2.118</v>
       </c>
       <c r="G30" t="n">
-        <v>0.281</v>
+        <v>-0.036</v>
       </c>
       <c r="H30" t="n">
-        <v>2.673</v>
+        <v>2.706</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -1251,22 +1251,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.881</v>
+        <v>1.313</v>
       </c>
       <c r="E31" t="n">
-        <v>1.386</v>
+        <v>1.435</v>
       </c>
       <c r="F31" t="n">
-        <v>1.504</v>
+        <v>1.635</v>
       </c>
       <c r="G31" t="n">
-        <v>0.205</v>
+        <v>0.35</v>
       </c>
       <c r="H31" t="n">
-        <v>3.026</v>
+        <v>3.217</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -1283,19 +1283,19 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>0.863</v>
+        <v>1.031</v>
       </c>
       <c r="E32" t="n">
-        <v>1.301</v>
+        <v>1.458</v>
       </c>
       <c r="F32" t="n">
-        <v>1.124</v>
+        <v>1.366</v>
       </c>
       <c r="G32" t="n">
-        <v>0.238</v>
+        <v>0.183</v>
       </c>
       <c r="H32" t="n">
-        <v>2.566</v>
+        <v>2.465</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -1312,19 +1312,19 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1.067</v>
+        <v>1.068</v>
       </c>
       <c r="E33" t="n">
-        <v>0.522</v>
+        <v>0.523</v>
       </c>
       <c r="F33" t="n">
         <v>0.563</v>
       </c>
       <c r="G33" t="n">
-        <v>0.649</v>
+        <v>0.663</v>
       </c>
       <c r="H33" t="n">
-        <v>2.402</v>
+        <v>2.659</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -1338,22 +1338,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>1.684</v>
+        <v>1.058</v>
       </c>
       <c r="E34" t="n">
-        <v>2.081</v>
+        <v>1.066</v>
       </c>
       <c r="F34" t="n">
-        <v>2.081</v>
+        <v>1.037</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06</v>
+        <v>0.395</v>
       </c>
       <c r="H34" t="n">
-        <v>3.376</v>
+        <v>2.925</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -1370,19 +1370,19 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>1.876</v>
+        <v>1.689</v>
       </c>
       <c r="E35" t="n">
-        <v>1.996</v>
+        <v>2.109</v>
       </c>
       <c r="F35" t="n">
-        <v>1.996</v>
+        <v>2.109</v>
       </c>
       <c r="G35" t="n">
-        <v>0.273</v>
+        <v>0.073</v>
       </c>
       <c r="H35" t="n">
-        <v>3.835</v>
+        <v>3.457</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -1396,22 +1396,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>0.881</v>
+        <v>1.876</v>
       </c>
       <c r="E36" t="n">
-        <v>1.14</v>
+        <v>2.005</v>
       </c>
       <c r="F36" t="n">
-        <v>1.085</v>
+        <v>2.005</v>
       </c>
       <c r="G36" t="n">
-        <v>0.193</v>
+        <v>0.276</v>
       </c>
       <c r="H36" t="n">
-        <v>2.181</v>
+        <v>3.965</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -1425,25 +1425,25 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>1.067</v>
+        <v>1.031</v>
       </c>
       <c r="E37" t="n">
-        <v>1.208</v>
+        <v>1.438</v>
       </c>
       <c r="F37" t="n">
-        <v>1.208</v>
+        <v>1.413</v>
       </c>
       <c r="G37" t="n">
-        <v>0.153</v>
+        <v>0.038</v>
       </c>
       <c r="H37" t="n">
-        <v>2.495</v>
+        <v>2.66</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1454,25 +1454,23 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.873</v>
-      </c>
+        <v>1.678</v>
+      </c>
+      <c r="E38" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.579</v>
+        <v>2.711</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1483,25 +1481,25 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>0.881</v>
+        <v>1.313</v>
       </c>
       <c r="E39" t="n">
-        <v>1.386</v>
+        <v>1.435</v>
       </c>
       <c r="F39" t="n">
-        <v>1.504</v>
+        <v>1.635</v>
       </c>
       <c r="G39" t="n">
-        <v>0.205</v>
+        <v>0.35</v>
       </c>
       <c r="H39" t="n">
-        <v>3.026</v>
+        <v>3.217</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1515,22 +1513,22 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>0.863</v>
+        <v>1.031</v>
       </c>
       <c r="E40" t="n">
-        <v>1.301</v>
+        <v>1.458</v>
       </c>
       <c r="F40" t="n">
-        <v>1.124</v>
+        <v>1.366</v>
       </c>
       <c r="G40" t="n">
         <v>0.183</v>
       </c>
       <c r="H40" t="n">
-        <v>2.566</v>
+        <v>2.465</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1544,22 +1542,22 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>1.035</v>
+        <v>1.058</v>
       </c>
       <c r="E41" t="n">
-        <v>1.09</v>
+        <v>1.361</v>
       </c>
       <c r="F41" t="n">
-        <v>1.09</v>
+        <v>1.361</v>
       </c>
       <c r="G41" t="n">
-        <v>0.282</v>
+        <v>0.193</v>
       </c>
       <c r="H41" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1573,22 +1571,22 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.067</v>
+        <v>1.068</v>
       </c>
       <c r="E42" t="n">
-        <v>0.522</v>
+        <v>0.523</v>
       </c>
       <c r="F42" t="n">
         <v>0.563</v>
       </c>
       <c r="G42" t="n">
-        <v>0.649</v>
+        <v>0.663</v>
       </c>
       <c r="H42" t="n">
-        <v>2.402</v>
+        <v>2.659</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1599,25 +1597,25 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>1.684</v>
+        <v>1.058</v>
       </c>
       <c r="E43" t="n">
-        <v>2.081</v>
+        <v>1.066</v>
       </c>
       <c r="F43" t="n">
-        <v>2.081</v>
+        <v>1.037</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06</v>
+        <v>0.374</v>
       </c>
       <c r="H43" t="n">
-        <v>3.376</v>
+        <v>2.925</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1631,22 +1629,22 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>1.876</v>
+        <v>1.689</v>
       </c>
       <c r="E44" t="n">
-        <v>1.996</v>
+        <v>2.109</v>
       </c>
       <c r="F44" t="n">
-        <v>1.996</v>
+        <v>2.109</v>
       </c>
       <c r="G44" t="n">
-        <v>0.129</v>
+        <v>0.073</v>
       </c>
       <c r="H44" t="n">
-        <v>3.835</v>
+        <v>3.457</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1657,25 +1655,25 @@
         <v>9</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0.881</v>
+        <v>1.876</v>
       </c>
       <c r="E45" t="n">
-        <v>1.14</v>
+        <v>2.005</v>
       </c>
       <c r="F45" t="n">
-        <v>1.085</v>
+        <v>2.005</v>
       </c>
       <c r="G45" t="n">
-        <v>0.193</v>
+        <v>0.156</v>
       </c>
       <c r="H45" t="n">
-        <v>2.181</v>
+        <v>3.965</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1686,25 +1684,25 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>1.067</v>
+        <v>1.031</v>
       </c>
       <c r="E46" t="n">
-        <v>1.208</v>
+        <v>1.438</v>
       </c>
       <c r="F46" t="n">
-        <v>1.208</v>
+        <v>1.413</v>
       </c>
       <c r="G46" t="n">
-        <v>0.153</v>
+        <v>0.024</v>
       </c>
       <c r="H46" t="n">
-        <v>2.495</v>
+        <v>2.66</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1715,25 +1713,23 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.873</v>
-      </c>
+        <v>1.678</v>
+      </c>
+      <c r="E47" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="n">
-        <v>0.426</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>2.579</v>
+        <v>2.711</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1744,25 +1740,25 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0.881</v>
+        <v>1.313</v>
       </c>
       <c r="E48" t="n">
-        <v>1.386</v>
+        <v>1.435</v>
       </c>
       <c r="F48" t="n">
-        <v>1.504</v>
+        <v>1.635</v>
       </c>
       <c r="G48" t="n">
-        <v>0.205</v>
+        <v>0.297</v>
       </c>
       <c r="H48" t="n">
-        <v>3.026</v>
+        <v>3.217</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1776,22 +1772,22 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>1.005</v>
       </c>
       <c r="E49" t="n">
-        <v>0.748</v>
+        <v>0.94</v>
       </c>
       <c r="F49" t="n">
-        <v>0.748</v>
+        <v>0.94</v>
       </c>
       <c r="G49" t="n">
-        <v>0.508</v>
+        <v>0.372</v>
       </c>
       <c r="H49" t="n">
-        <v>2.426</v>
+        <v>2.56</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1805,22 +1801,22 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>1.035</v>
+        <v>1.058</v>
       </c>
       <c r="E50" t="n">
-        <v>1.09</v>
+        <v>1.361</v>
       </c>
       <c r="F50" t="n">
-        <v>1.09</v>
+        <v>1.361</v>
       </c>
       <c r="G50" t="n">
-        <v>0.277</v>
+        <v>0.179</v>
       </c>
       <c r="H50" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1834,22 +1830,22 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1.067</v>
+        <v>1.068</v>
       </c>
       <c r="E51" t="n">
-        <v>0.522</v>
+        <v>0.523</v>
       </c>
       <c r="F51" t="n">
         <v>0.563</v>
       </c>
       <c r="G51" t="n">
-        <v>0.649</v>
+        <v>0.663</v>
       </c>
       <c r="H51" t="n">
-        <v>2.402</v>
+        <v>2.659</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1860,25 +1856,25 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>1.684</v>
+        <v>1.058</v>
       </c>
       <c r="E52" t="n">
-        <v>2.081</v>
+        <v>1.066</v>
       </c>
       <c r="F52" t="n">
-        <v>2.081</v>
+        <v>1.037</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06</v>
+        <v>0.342</v>
       </c>
       <c r="H52" t="n">
-        <v>3.376</v>
+        <v>2.925</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1892,22 +1888,22 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>0.863</v>
+        <v>1.689</v>
       </c>
       <c r="E53" t="n">
-        <v>0.936</v>
+        <v>2.109</v>
       </c>
       <c r="F53" t="n">
-        <v>0.936</v>
+        <v>2.109</v>
       </c>
       <c r="G53" t="n">
-        <v>0.317</v>
+        <v>0.073</v>
       </c>
       <c r="H53" t="n">
-        <v>2.551</v>
+        <v>3.457</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1924,19 +1920,19 @@
         <v>1.876</v>
       </c>
       <c r="E54" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="F54" t="n">
-        <v>1.996</v>
+        <v>2.005</v>
       </c>
       <c r="G54" t="n">
-        <v>0.129</v>
+        <v>0.156</v>
       </c>
       <c r="H54" t="n">
-        <v>3.835</v>
+        <v>3.965</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1947,25 +1943,25 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>0.881</v>
+        <v>1.005</v>
       </c>
       <c r="E55" t="n">
-        <v>1.14</v>
+        <v>1.115</v>
       </c>
       <c r="F55" t="n">
-        <v>1.085</v>
+        <v>1.115</v>
       </c>
       <c r="G55" t="n">
-        <v>0.185</v>
+        <v>0.266</v>
       </c>
       <c r="H55" t="n">
-        <v>2.181</v>
+        <v>2.253</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
